--- a/data/variable_deuda_PBI.xlsx
+++ b/data/variable_deuda_PBI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\evaluaci-n_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{149A9784-8AF5-4814-806D-0AD1B75BAD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8FFFAC-DF1A-4C2B-8B06-EF3BDCE0900D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F6A8A84C-076C-46E0-A05D-F9C946F1581D}"/>
+    <workbookView xWindow="0" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{F6A8A84C-076C-46E0-A05D-F9C946F1581D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
